--- a/pruebas_excel/ETABS_modelo/ETABS/revision_3_marco_con_dano/datos_prueba3.xlsx
+++ b/pruebas_excel/ETABS_modelo/ETABS/revision_3_marco_con_dano/datos_prueba3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos_Jaret\Proyecto-doctoral_error\pruebas_excel\ETABS_modelo\ETABS\revision_3_marco_con_dano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1AB8BC-9B2C-4C0A-8A9F-C7C68A638020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3F7126-8017-40F7-BE53-B2A4F9EABA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="5115" windowWidth="12000" windowHeight="7995" xr2:uid="{22B2F9C4-7E9B-4B81-9A5C-B09AC4B9FD30}"/>
+    <workbookView xWindow="-30" yWindow="3315" windowWidth="12000" windowHeight="7995" firstSheet="30" activeTab="30" xr2:uid="{7D1F8C59-414A-4CDF-9139-FB7D48E715A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembled Joint Masses" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,14 @@
     <sheet name="Jt Assigns - Summary" sheetId="21" r:id="rId21"/>
     <sheet name="Joint Loads - Force" sheetId="22" r:id="rId22"/>
     <sheet name="Mass Source Definition" sheetId="23" r:id="rId23"/>
-    <sheet name="Mass Summary by Group" sheetId="24" r:id="rId24"/>
-    <sheet name="Mass Summary by Story" sheetId="25" r:id="rId25"/>
-    <sheet name="Mat Prop - Basic Mech Props" sheetId="26" r:id="rId26"/>
-    <sheet name="Pier Label Definitions" sheetId="27" r:id="rId27"/>
-    <sheet name="Point Bays" sheetId="28" r:id="rId28"/>
-    <sheet name="Point Object Connectivity" sheetId="29" r:id="rId29"/>
-    <sheet name="Spandrel Label Definitions" sheetId="30" r:id="rId30"/>
-    <sheet name="Story Definitions" sheetId="31" r:id="rId31"/>
-    <sheet name="Tower and Base Story Definition" sheetId="32" r:id="rId32"/>
-    <sheet name="Program Control" sheetId="33" r:id="rId33"/>
+    <sheet name="Mat Prop - Basic Mech Props" sheetId="24" r:id="rId24"/>
+    <sheet name="Pier Label Definitions" sheetId="25" r:id="rId25"/>
+    <sheet name="Point Bays" sheetId="26" r:id="rId26"/>
+    <sheet name="Point Object Connectivity" sheetId="27" r:id="rId27"/>
+    <sheet name="Spandrel Label Definitions" sheetId="28" r:id="rId28"/>
+    <sheet name="Story Definitions" sheetId="29" r:id="rId29"/>
+    <sheet name="Tower and Base Story Definition" sheetId="30" r:id="rId30"/>
+    <sheet name="Program Control" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="297">
   <si>
     <t>TABLE:  Assembled Joint Masses</t>
   </si>
@@ -145,6 +143,24 @@
     <t>d2b569f4-b66a-48e2-af01-232e2d6c56dd</t>
   </si>
   <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>29df0e6d-6402-43fe-9395-a7a876b88e37</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>79be7d08-6cdd-4601-87c2-b7d02bb019da</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>96bfc817-23ec-4fd5-b80b-a71a00269483</t>
+  </si>
+  <si>
     <t>TABLE:  Beam Object Connectivity</t>
   </si>
   <si>
@@ -163,7 +179,16 @@
     <t>Length</t>
   </si>
   <si>
-    <t>d96ec63f-3d23-4a5b-8409-59098e8b6e90</t>
+    <t>0f431cfa-79cc-4933-af18-48a0ec082b18</t>
+  </si>
+  <si>
+    <t>34fae792-2ec3-440c-87d1-689e2ea238ff</t>
+  </si>
+  <si>
+    <t>63dadde3-5f43-46ac-a3f6-89f1102a17da</t>
+  </si>
+  <si>
+    <t>040592a1-e87b-45b1-b9c4-22593f589d85</t>
   </si>
   <si>
     <t>TABLE:  Brace Bays</t>
@@ -181,6 +206,24 @@
     <t>500dd9c8-1d93-4588-884c-fd10bcfa88e1</t>
   </si>
   <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>bb870a0f-e673-429e-8f21-ae5f4d126a7c</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>ab1b5781-d07e-458c-990d-1ccc5e4cdb86</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>cb24113d-54f5-4e59-9b3d-c7c989424acb</t>
+  </si>
+  <si>
     <t>TABLE:  Brace Object Connectivity</t>
   </si>
   <si>
@@ -190,6 +233,15 @@
     <t>6b88ea5e-f567-4dd8-81fb-bf5d53de9233</t>
   </si>
   <si>
+    <t>e3e5969b-6194-46a7-a4c0-2ba1a2709832</t>
+  </si>
+  <si>
+    <t>f189a129-3b44-4b61-a397-47e79ed1421c</t>
+  </si>
+  <si>
+    <t>787cb99f-13a1-4917-8c24-4948dae85db4</t>
+  </si>
+  <si>
     <t>TABLE:  Column Bays</t>
   </si>
   <si>
@@ -199,6 +251,24 @@
     <t>5fcc99e6-3cf7-451f-9a60-18050e8771c9</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>191d4109-5899-43d2-a5ff-53c5a9dfd341</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>b0cfb463-b38a-4aa0-8243-e34d97cd653d</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>ea17836c-b6b3-4963-8acd-2a89999fdac3</t>
+  </si>
+  <si>
     <t>TABLE:  Column Object Connectivity</t>
   </si>
   <si>
@@ -208,6 +278,15 @@
     <t>4f1dddaf-eecb-41ed-bb8b-930f6bfca92f</t>
   </si>
   <si>
+    <t>b89ac87a-c3ac-48c6-a32d-dc133d780ba9</t>
+  </si>
+  <si>
+    <t>c2a10de6-2bc0-40a1-b5a1-b3508b1f592e</t>
+  </si>
+  <si>
+    <t>26c8d49e-95c3-4c94-89c6-4901faa9855d</t>
+  </si>
+  <si>
     <t>TABLE:  Diaphragm Definitions</t>
   </si>
   <si>
@@ -328,12 +407,12 @@
     <t>No Transform Stiffness</t>
   </si>
   <si>
+    <t>8 (Top Center)</t>
+  </si>
+  <si>
     <t>10 (Centroid)</t>
   </si>
   <si>
-    <t>8 (Top Center)</t>
-  </si>
-  <si>
     <t>TABLE:  Frame Assignments - Output Stations</t>
   </si>
   <si>
@@ -385,15 +464,15 @@
     <t>Min Number Stations</t>
   </si>
   <si>
+    <t>Beam</t>
+  </si>
+  <si>
     <t>Column</t>
   </si>
   <si>
     <t>Brace</t>
   </si>
   <si>
-    <t>Beam</t>
-  </si>
-  <si>
     <t>TABLE:  Frame Loads Assignments - Open Structure Wind Parameters</t>
   </si>
   <si>
@@ -604,13 +683,16 @@
     <t>Live</t>
   </si>
   <si>
+    <t>1701481a-ebf5-42d7-b399-91c02e7b2a1e</t>
+  </si>
+  <si>
     <t>c6d5e1cb-1516-431a-88df-64960b81d45d</t>
   </si>
   <si>
-    <t>31e68f48-b010-4ae0-b74e-7ba534006222</t>
-  </si>
-  <si>
-    <t>22143240-3d3b-4496-aef2-40734eb7b6fd</t>
+    <t>7ca89623-1725-4c62-894b-ab561f27dbc0</t>
+  </si>
+  <si>
+    <t>790a5915-5d81-49e3-ad88-8898b7a8e6bc</t>
   </si>
   <si>
     <t>TABLE:  Mass Source Definition</t>
@@ -646,30 +728,6 @@
     <t>f6dfa372-fe3d-4446-be01-2577f0b5bf8a</t>
   </si>
   <si>
-    <t>TABLE:  Mass Summary by Group</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Self Mass</t>
-  </si>
-  <si>
-    <t>Self Weight</t>
-  </si>
-  <si>
-    <t>Mass X</t>
-  </si>
-  <si>
-    <t>Mass Y</t>
-  </si>
-  <si>
-    <t>Mass Z</t>
-  </si>
-  <si>
-    <t>TABLE:  Mass Summary by Story</t>
-  </si>
-  <si>
     <t>TABLE:  Material Properties - Basic Mechanical Properties</t>
   </si>
   <si>
@@ -745,6 +803,9 @@
     <t>0b907412-4893-4018-b073-a822f1f3af67</t>
   </si>
   <si>
+    <t>6d459fae-6234-41e6-9f49-863400ad05ff</t>
+  </si>
+  <si>
     <t>TABLE:  Point Object Connectivity</t>
   </si>
   <si>
@@ -754,16 +815,28 @@
     <t>IsSpecial</t>
   </si>
   <si>
+    <t>ae176872-ba73-43b5-ba3c-22349248e0fd</t>
+  </si>
+  <si>
     <t>0e51c691-02b2-4696-ab71-d6c570562559</t>
   </si>
   <si>
-    <t>8437dfe2-6d70-4d03-9b3a-ebd5a77f48a2</t>
+    <t>ce1819e7-ee79-496d-9b05-03516651fe9e</t>
+  </si>
+  <si>
+    <t>4f775405-d033-463f-a3eb-49436a7f0065</t>
+  </si>
+  <si>
+    <t>349d63b1-2200-434f-8753-975fe10fa700</t>
   </si>
   <si>
     <t>48e06c20-8add-409d-98c0-9505d2a3b0bc</t>
   </si>
   <si>
     <t>11c1016d-acfc-4cf3-b9e3-efe301a5ed67</t>
+  </si>
+  <si>
+    <t>57d6aec4-302a-4b64-a5b0-0b88ef0dfcd2</t>
   </si>
   <si>
     <t>TABLE:  Spandrel Label Definitions</t>
@@ -973,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1003,6 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,12 +1410,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9EBA1C-6501-4736-9E76-92BE2A448A33}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E2C442-AD7F-4712-9D9C-56CC31CB11D1}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:C7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,20 +1521,20 @@
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.55530000000000002</v>
+        <v>1.0337000000000001</v>
       </c>
       <c r="E4">
-        <v>0.55530000000000002</v>
+        <v>1.0337000000000001</v>
       </c>
       <c r="F4">
-        <v>0.55530000000000002</v>
+        <v>1.0337000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1483,22 +1557,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.27600000000000002</v>
+        <v>1.393</v>
       </c>
       <c r="E5">
-        <v>0.27600000000000002</v>
+        <v>1.393</v>
       </c>
       <c r="F5">
-        <v>0.27600000000000002</v>
+        <v>1.393</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1516,27 +1590,27 @@
         <v>5000</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>0.50600000000000001</v>
+        <v>1.0677000000000001</v>
       </c>
       <c r="E6">
-        <v>0.50600000000000001</v>
+        <v>1.0677000000000001</v>
       </c>
       <c r="F6">
-        <v>0.50600000000000001</v>
+        <v>1.0677000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1548,33 +1622,33 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>5000</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>4</v>
+      <c r="C7" s="13">
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>0.32529999999999998</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="E7">
-        <v>0.32529999999999998</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="F7">
-        <v>0.32529999999999998</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1592,6 +1666,158 @@
         <v>0</v>
       </c>
       <c r="L7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>6000</v>
+      </c>
+      <c r="K8">
+        <v>5000</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>6000</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.23</v>
+      </c>
+      <c r="E10">
+        <v>0.23</v>
+      </c>
+      <c r="F10">
+        <v>0.23</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5000</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0</v>
       </c>
     </row>
@@ -1601,11 +1827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B61227-A1C3-47F2-9984-0A66C7044130}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF922A87-BBAE-4F1D-B6A9-7F119374206F}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1846,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1638,22 +1864,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1685,25 +1911,25 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1711,51 +1937,285 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>72</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7">
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1764,11 +2224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C801B41-53C6-44CC-9DBE-D9F12EE1FFF2}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55873B82-4663-4295-9D48-085898835CD8}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,7 +2244,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1802,22 +2262,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1851,25 +2311,25 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1877,51 +2337,285 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1930,11 +2624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799760ED-547D-491B-A879-BE73B5B1A3EE}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2893B0-5C67-4BDF-83EA-BC62DEFC1639}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,7 +2642,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1965,19 +2659,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2008,22 +2702,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2031,45 +2725,252 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2078,11 +2979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C1D6CB-775F-445B-939A-15D24D30227A}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B2CEF5-6D27-4018-891D-53BA8DE0C5D4}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2997,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2112,16 +3013,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,16 +3048,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,33 +3065,186 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="E6">
         <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2199,11 +3253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B054F0B-0C37-4D1D-9728-A1A0E70D17F2}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E06F2BA-CA19-4B2E-9E7F-9A11C63FDF3D}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,7 +3271,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2233,16 +3287,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,19 +3324,19 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2290,39 +3344,219 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2331,11 +3565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59634B1C-DD83-4B37-9A2E-402CFBA7B616}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709369E-FA33-4B34-BD96-FFF9B86FF8AE}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,7 +3586,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2371,25 +3605,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2424,25 +3658,25 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E4">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="H4">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2450,51 +3684,285 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E5">
-        <v>7071.07</v>
+        <v>5000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>6000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="H6">
         <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12">
+        <v>7071.07</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13">
+        <v>7071.07</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>7810.25</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15">
+        <v>7810.25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2503,11 +3971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F46B732-85A4-4F9B-A044-BCA6E3D9B2C4}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9491485C-A38A-446F-B8F7-A569DB8D30DB}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,7 +3989,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2537,16 +4005,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2574,19 +4042,19 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,39 +4062,219 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>112</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05331FBA-9C5A-40A3-8970-9AB134404DAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BDB6E2-6345-49A8-BCE5-BEA8E4AFF74A}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2661,7 +4309,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2681,52 +4329,52 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2765,13 +4413,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -2804,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +4464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C5C276-04CF-4E33-A72C-7F745F392FAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC723964-3298-4DCF-9CDA-B460E581F4E5}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2844,7 +4492,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2878,94 +4526,94 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="R2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="W2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="AC2" s="11" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -2982,40 +4630,40 @@
         <v>13</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>16</v>
@@ -3046,16 +4694,16 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="E4">
         <v>11721.3</v>
@@ -3142,7 +4790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A93140A-5095-4F55-90C7-0ECCB1CCB9E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C11906A-C985-4B8B-BE44-F3BE6088C67F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3160,7 +4808,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3170,19 +4818,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
@@ -3210,22 +4858,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3234,11 +4882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F4B705-9A5E-44D9-B0F0-C715C4192E45}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3C5642-287D-43A7-BACA-CEF413DBF03C}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +4894,7 @@
     <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,14 +4937,56 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3305,11 +4995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8C112-5EB4-4BEC-9B3F-FD55200976AF}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ED0EBF-8A40-4912-AB3C-B637D589825F}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,7 +5011,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3340,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -3394,29 +5084,116 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" s="13">
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3425,11 +5202,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C22D6C5-B3BD-49C9-B43F-E0AF756C556E}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D1F587-1C6B-45BB-A17E-55745A7A05C9}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C7"/>
+      <selection activeCell="B4" sqref="B4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3442,7 +5219,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3457,13 +5234,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,59 +5264,124 @@
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>163</v>
+      <c r="D10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3548,11 +5390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DD590D-0D1A-491A-B2EC-00ABD6F4785B}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD5B54B-0113-4848-9965-3899CB8B0D78}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C6"/>
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,12 +5404,12 @@
     <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3590,34 +5432,34 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>22</v>
@@ -3637,22 +5479,22 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>16</v>
@@ -3668,14 +5510,14 @@
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="E4">
         <v>5000</v>
@@ -3702,21 +5544,21 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" s="13">
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>5000</v>
@@ -3743,21 +5585,21 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>4</v>
+      <c r="C6" s="13">
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <v>5000</v>
@@ -3784,7 +5626,48 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="F7">
+        <v>6000</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3793,7 +5676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4342E259-6978-4777-A435-65CFDC004788}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE669B01-6F0D-4F31-BD53-34558535B83C}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3816,7 +5699,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3830,31 +5713,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>22</v>
@@ -3894,34 +5777,34 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3930,180 +5813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AE4648-BA05-4C1D-95A5-E1D9A8FE740D}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4">
-        <v>1.6626000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1.6626000000000001</v>
-      </c>
-      <c r="E4">
-        <v>1.6626000000000001</v>
-      </c>
-      <c r="F4">
-        <v>1.6626000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D932AC3-177F-4A87-8B72-09DA2C201ECE}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>0.55530000000000002</v>
-      </c>
-      <c r="C4">
-        <v>0.55530000000000002</v>
-      </c>
-      <c r="D4">
-        <v>0.55530000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>1.1073</v>
-      </c>
-      <c r="C5">
-        <v>1.1073</v>
-      </c>
-      <c r="D5">
-        <v>1.1073</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1589B5AD-9DF1-40E8-82A4-FBBE8CC87A82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED79363-C608-4E3C-8716-CA32E7118605}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +5832,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -4134,28 +5844,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4166,28 +5876,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C4">
         <v>2.4000000000000001E-5</v>
@@ -4210,10 +5920,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C5">
         <v>7.7000000000000001E-5</v>
@@ -4230,10 +5940,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C6">
         <v>7.7000000000000001E-5</v>
@@ -4250,10 +5960,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C7">
         <v>7.7000000000000001E-5</v>
@@ -4279,8 +5989,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88C3C60-2699-4FC3-8EC3-73AF2F75BF85}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7BA9B-4EA0-4E1F-949B-D391FE2E7D3A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4295,13 +6005,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -4317,10 +6027,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4328,12 +6038,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A110E49D-710C-4CC9-907E-7769C64097A9}">
-  <dimension ref="A1:F6"/>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4626EF32-0392-419D-8D36-676AAF4EE672}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4346,7 +6056,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -4359,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
@@ -4368,7 +6078,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>22</v>
@@ -4395,11 +6105,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4411,15 +6121,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>6000</v>
@@ -4431,15 +6141,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>6000</v>
@@ -4451,7 +6161,27 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4459,12 +6189,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBA53D2-410C-402A-B107-40996786424E}">
-  <dimension ref="A1:I7"/>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2229B2-3216-4A82-B426-F8C5C2416CD9}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D7"/>
+      <selection activeCell="A4" sqref="A4:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4479,7 +6209,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4492,19 +6222,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
@@ -4549,23 +6279,23 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="13">
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="D4" s="13">
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F4">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>5000</v>
@@ -4574,94 +6304,210 @@
         <v>5000</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" s="13">
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G5">
         <v>5000</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" s="13">
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F6">
         <v>6000</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>5000</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="13">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9">
+        <v>6000</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7">
+      <c r="E10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10">
         <v>6000</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>231</v>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4669,112 +6515,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B56FFB7-2273-4D8D-8D99-53A7F2A89E93}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>6000</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E767EA-929B-4C3F-B035-393DF5FAEA91}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78613BB7-6B9D-4169-BAAB-7D276345DADA}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4790,17 +6532,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -4819,13 +6561,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4833,8 +6575,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077B78C0-C2C3-4433-B6C0-234400FB97B2}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176EEE3D-0136-45A1-BEEB-4244C09999A7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4854,7 +6596,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -4865,22 +6607,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>22</v>
@@ -4917,19 +6659,19 @@
         <v>5000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4937,8 +6679,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5099A1F0-B895-4209-A26C-2C7F9403336C}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A720EE4-8AFB-43CB-AD53-700F66397FF3}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>6000</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="13">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="13">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5D2FEB-CC9B-4408-8ED5-6B86EF2D33FE}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4957,7 +6872,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4968,25 +6883,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5014,13 +6929,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -5029,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5037,11 +6952,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DEEDDD-E0E5-445A-B8D9-002AF403B771}">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C8B161-02B6-42EA-9E39-F76F891B1ED6}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5061,7 +6978,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5077,40 +6994,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5153,40 +7070,40 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5195,11 +7112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C311F1-2F2D-4E9B-BF58-0C9404304B57}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936102CE-EC0D-422D-B65D-1C910BE55C6E}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,12 +7125,12 @@
     <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5231,7 +7148,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>22</v>
@@ -5256,19 +7173,70 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5277,11 +7245,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C873E2B-7CBB-4E1C-92A9-09AFEB39ABF0}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B94A93-D243-4B15-A9B5-B1314FD1EE56}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A4" sqref="A4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5292,12 +7260,12 @@
     <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5308,22 +7276,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>22</v>
@@ -5353,26 +7321,95 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="13">
         <v>3</v>
       </c>
       <c r="F4">
         <v>7071.07</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>7071.07</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>7810.25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>7810.25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5381,11 +7418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E00B620-861B-43E8-8586-3B5991BE4E1C}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4674D61D-7847-495C-8160-9F80D9095A44}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B4" sqref="B4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5394,12 +7431,12 @@
     <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5417,7 +7454,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>22</v>
@@ -5442,19 +7479,70 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
+        <v>59</v>
+      </c>
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5463,11 +7551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5BC88C-C15B-4D68-A145-1A4FE629FB32}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF99E58A-CACB-4252-8B89-71AB70BA332F}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A4" sqref="A4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5478,12 +7566,12 @@
     <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5494,22 +7582,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>22</v>
@@ -5539,26 +7627,95 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4">
+        <v>59</v>
+      </c>
+      <c r="D4" s="13">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="13">
         <v>3</v>
       </c>
       <c r="F4">
         <v>5000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5567,7 +7724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D659E2-CFCB-4D8D-919A-8FA32A8D3C4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6406C11-8A34-4FB1-9C38-A7F4E02A069F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5583,17 +7740,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -5612,13 +7769,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5627,7 +7784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D7908A-6FD3-490B-A53C-B7FDD30AB4A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79405-CBA4-4EC7-81D3-6447D1F28FE8}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5646,7 +7803,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -5662,37 +7819,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>22</v>
@@ -5738,10 +7895,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5771,7 +7928,7 @@
         <v>6000</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/pruebas_excel/ETABS_modelo/ETABS/revision_3_marco_con_dano/datos_prueba3.xlsx
+++ b/pruebas_excel/ETABS_modelo/ETABS/revision_3_marco_con_dano/datos_prueba3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos_Jaret\Proyecto-doctoral_error\pruebas_excel\ETABS_modelo\ETABS\revision_3_marco_con_dano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos_Jaret\Proyecto-doctoral\pruebas_excel\ETABS_modelo\ETABS\revision_3_marco_con_dano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3F7126-8017-40F7-BE53-B2A4F9EABA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF459FE4-60AC-4485-96CA-7AFE510D24BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="3315" windowWidth="12000" windowHeight="7995" firstSheet="30" activeTab="30" xr2:uid="{7D1F8C59-414A-4CDF-9139-FB7D48E715A8}"/>
+    <workbookView xWindow="12405" yWindow="4230" windowWidth="12000" windowHeight="7995" firstSheet="30" activeTab="30" xr2:uid="{1108F7E5-EE7C-4239-A8C2-AFF9DC0EF2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembled Joint Masses" sheetId="1" r:id="rId1"/>
@@ -1410,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E2C442-AD7F-4712-9D9C-56CC31CB11D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE83F56-A8EF-4DBF-AA85-3D93CBDCAA12}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1827,7 +1827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF922A87-BBAE-4F1D-B6A9-7F119374206F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9478548B-5118-4356-90D8-101DC853F820}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2224,7 +2224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55873B82-4663-4295-9D48-085898835CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BE5B0D-6A2F-4A93-AC2C-50B71F113FCE}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2624,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2893B0-5C67-4BDF-83EA-BC62DEFC1639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2A7381-3CB4-48A5-96AD-E4A8217F5D90}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B2CEF5-6D27-4018-891D-53BA8DE0C5D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6870AD5D-AEF1-4457-9E7A-00B4863954B0}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3253,7 +3253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E06F2BA-CA19-4B2E-9E7F-9A11C63FDF3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FDB89A-9348-4228-AEF6-AF9930E7A2C6}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3565,10 +3565,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E709369E-FA33-4B34-BD96-FFF9B86FF8AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B843E9-DFE4-4AE3-B02B-084AA51A807F}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
@@ -3971,7 +3971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9491485C-A38A-446F-B8F7-A569DB8D30DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B150B06-4D33-48F5-BB4A-8FEAF4558352}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4283,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BDB6E2-6345-49A8-BCE5-BEA8E4AFF74A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7146EA3-9722-4D3A-87DD-0D75BDEE2D63}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4464,7 +4464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC723964-3298-4DCF-9CDA-B460E581F4E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0C103D-B759-4E28-BDC3-8DD0DC5CCEF2}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4790,7 +4790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C11906A-C985-4B8B-BE44-F3BE6088C67F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3506CFEF-254F-44A5-9A4A-B5EDCBEEFEFA}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4882,7 +4882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3C5642-287D-43A7-BACA-CEF413DBF03C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83221338-8DD4-4A4B-A77E-35179DC72205}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4995,7 +4995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ED0EBF-8A40-4912-AB3C-B637D589825F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E391ABD-C050-4DD7-85ED-90F56AB50024}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5202,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D1F587-1C6B-45BB-A17E-55745A7A05C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590C13C5-2A7E-43A0-A875-42F37BE79724}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5390,7 +5390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD5B54B-0113-4848-9965-3899CB8B0D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5306E668-4674-48CE-88FC-2201D88114D6}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5676,7 +5676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE669B01-6F0D-4F31-BD53-34558535B83C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B1EA7F-86D3-4E0C-8E80-CBF2499622F9}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5813,7 +5813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED79363-C608-4E3C-8716-CA32E7118605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A5C4F1-BA9A-4F35-B467-89BB4A6D10CA}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5990,7 +5990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7BA9B-4EA0-4E1F-949B-D391FE2E7D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1E099B-E980-4271-8A62-F5596DD9857D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6039,11 +6039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4626EF32-0392-419D-8D36-676AAF4EE672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9E0A0-B189-4EFF-8ECB-01F3CCEFA662}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6190,7 +6190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2229B2-3216-4A82-B426-F8C5C2416CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674515EC-FABD-44DF-9E7E-401FD958ACDA}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6516,7 +6516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78613BB7-6B9D-4169-BAAB-7D276345DADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6A5AB-B42B-42EF-B904-9016BE2983FF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6576,7 +6576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176EEE3D-0136-45A1-BEEB-4244C09999A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2863531-406A-430E-87BD-D1A88C822BCB}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6680,7 +6680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A720EE4-8AFB-43CB-AD53-700F66397FF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3B6526-088B-4E1B-BB31-CC71C20E6CFA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6853,7 +6853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5D2FEB-CC9B-4408-8ED5-6B86EF2D33FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8C7A18-925F-4EB6-9D23-680231FB1C42}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6953,7 +6953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C8B161-02B6-42EA-9E39-F76F891B1ED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232BD04B-EAE9-48EC-80A3-7030A9BE29D4}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7112,7 +7112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936102CE-EC0D-422D-B65D-1C910BE55C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60F2443-A839-473C-8EC1-2308F09D0501}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7245,7 +7245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B94A93-D243-4B15-A9B5-B1314FD1EE56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE323D-8169-4A3A-B5B6-B72036F5584B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7418,11 +7418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4674D61D-7847-495C-8160-9F80D9095A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E58660-77AF-4DEB-AC51-8EB56E7E1162}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C8"/>
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7551,7 +7551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF99E58A-CACB-4252-8B89-71AB70BA332F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2541EC49-4831-4E5C-B5F1-7E31C4D084CA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7724,7 +7724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6406C11-8A34-4FB1-9C38-A7F4E02A069F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8903F-5C46-461B-9208-57025B7FD9B8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7784,7 +7784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D79405-CBA4-4EC7-81D3-6447D1F28FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C0B1E2-CF61-4D62-BF2B-E389D0E6B00F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/pruebas_excel/ETABS_modelo/ETABS/revision_3_marco_con_dano/datos_prueba3.xlsx
+++ b/pruebas_excel/ETABS_modelo/ETABS/revision_3_marco_con_dano/datos_prueba3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos_Jaret\Proyecto-doctoral\pruebas_excel\ETABS_modelo\ETABS\revision_3_marco_con_dano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF459FE4-60AC-4485-96CA-7AFE510D24BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF99E7A5-CEFE-4493-8EDF-1358E6DC7FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12405" yWindow="4230" windowWidth="12000" windowHeight="7995" firstSheet="30" activeTab="30" xr2:uid="{1108F7E5-EE7C-4239-A8C2-AFF9DC0EF2BC}"/>
+    <workbookView xWindow="-30" yWindow="5115" windowWidth="12000" windowHeight="7995" firstSheet="30" activeTab="30" xr2:uid="{DFBB41F5-BB15-4BFD-B3A1-9CBA1652E7F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembled Joint Masses" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="289">
   <si>
     <t>TABLE:  Assembled Joint Masses</t>
   </si>
@@ -197,103 +197,79 @@
     <t>IEndStory</t>
   </si>
   <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Below</t>
+  </si>
+  <si>
+    <t>cb24113d-54f5-4e59-9b3d-c7c989424acb</t>
+  </si>
+  <si>
+    <t>TABLE:  Brace Object Connectivity</t>
+  </si>
+  <si>
+    <t>BraceBay</t>
+  </si>
+  <si>
+    <t>787cb99f-13a1-4917-8c24-4948dae85db4</t>
+  </si>
+  <si>
+    <t>TABLE:  Column Bays</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>5fcc99e6-3cf7-451f-9a60-18050e8771c9</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>191d4109-5899-43d2-a5ff-53c5a9dfd341</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>b0cfb463-b38a-4aa0-8243-e34d97cd653d</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>ea17836c-b6b3-4963-8acd-2a89999fdac3</t>
+  </si>
+  <si>
+    <t>TABLE:  Column Object Connectivity</t>
+  </si>
+  <si>
+    <t>ColumnBay</t>
+  </si>
+  <si>
+    <t>4f1dddaf-eecb-41ed-bb8b-930f6bfca92f</t>
+  </si>
+  <si>
+    <t>b89ac87a-c3ac-48c6-a32d-dc133d780ba9</t>
+  </si>
+  <si>
+    <t>c2a10de6-2bc0-40a1-b5a1-b3508b1f592e</t>
+  </si>
+  <si>
+    <t>26c8d49e-95c3-4c94-89c6-4901faa9855d</t>
+  </si>
+  <si>
+    <t>TABLE:  Diaphragm Definitions</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Rigidity Type</t>
+  </si>
+  <si>
     <t>D1</t>
-  </si>
-  <si>
-    <t>Below</t>
-  </si>
-  <si>
-    <t>500dd9c8-1d93-4588-884c-fd10bcfa88e1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>bb870a0f-e673-429e-8f21-ae5f4d126a7c</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>ab1b5781-d07e-458c-990d-1ccc5e4cdb86</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>cb24113d-54f5-4e59-9b3d-c7c989424acb</t>
-  </si>
-  <si>
-    <t>TABLE:  Brace Object Connectivity</t>
-  </si>
-  <si>
-    <t>BraceBay</t>
-  </si>
-  <si>
-    <t>6b88ea5e-f567-4dd8-81fb-bf5d53de9233</t>
-  </si>
-  <si>
-    <t>e3e5969b-6194-46a7-a4c0-2ba1a2709832</t>
-  </si>
-  <si>
-    <t>f189a129-3b44-4b61-a397-47e79ed1421c</t>
-  </si>
-  <si>
-    <t>787cb99f-13a1-4917-8c24-4948dae85db4</t>
-  </si>
-  <si>
-    <t>TABLE:  Column Bays</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>5fcc99e6-3cf7-451f-9a60-18050e8771c9</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>191d4109-5899-43d2-a5ff-53c5a9dfd341</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>b0cfb463-b38a-4aa0-8243-e34d97cd653d</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>ea17836c-b6b3-4963-8acd-2a89999fdac3</t>
-  </si>
-  <si>
-    <t>TABLE:  Column Object Connectivity</t>
-  </si>
-  <si>
-    <t>ColumnBay</t>
-  </si>
-  <si>
-    <t>4f1dddaf-eecb-41ed-bb8b-930f6bfca92f</t>
-  </si>
-  <si>
-    <t>b89ac87a-c3ac-48c6-a32d-dc133d780ba9</t>
-  </si>
-  <si>
-    <t>c2a10de6-2bc0-40a1-b5a1-b3508b1f592e</t>
-  </si>
-  <si>
-    <t>26c8d49e-95c3-4c94-89c6-4901faa9855d</t>
-  </si>
-  <si>
-    <t>TABLE:  Diaphragm Definitions</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Rigidity Type</t>
   </si>
   <si>
     <t>Rigid</t>
@@ -1410,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE83F56-A8EF-4DBF-AA85-3D93CBDCAA12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE6C8B8-C9CA-49D2-AB5B-5D98168C69CE}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1528,13 +1504,13 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1.0337000000000001</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="E4">
-        <v>1.0337000000000001</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="F4">
-        <v>1.0337000000000001</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1566,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.393</v>
+        <v>1.0677000000000001</v>
       </c>
       <c r="E5">
-        <v>1.393</v>
+        <v>1.0677000000000001</v>
       </c>
       <c r="F5">
-        <v>1.393</v>
+        <v>1.0677000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1604,13 +1580,13 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>1.0677000000000001</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="E6">
-        <v>1.0677000000000001</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="F6">
-        <v>1.0677000000000001</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1718,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>0.91449999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="E9">
-        <v>0.91449999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="F9">
-        <v>0.91449999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1794,13 +1770,13 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.55530000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="E11">
-        <v>0.55530000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="F11">
-        <v>0.55530000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1827,11 +1803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9478548B-5118-4356-90D8-101DC853F820}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F487C5B-ACDA-400B-BD13-B4C0C88E357C}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+      <selection activeCell="C4" sqref="C4:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,7 +1822,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1864,22 +1840,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -1929,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -1955,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1969,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -1981,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1995,7 +1971,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -2007,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,13 +1991,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2033,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2041,13 +2017,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2059,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2067,13 +2043,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2085,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2093,13 +2069,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2111,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,10 +2098,10 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2137,85 +2113,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2224,11 +2122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BE5B0D-6A2F-4A93-AC2C-50B71F113FCE}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2CCBB1-2120-473B-B378-1400CF929E80}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+      <selection activeCell="C4" sqref="C4:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2262,22 +2160,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2317,19 +2215,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2343,19 +2241,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2369,19 +2267,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2395,19 +2293,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2415,25 +2313,25 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2441,25 +2339,25 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2467,25 +2365,25 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2493,25 +2391,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2522,100 +2420,22 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2624,11 +2444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2A7381-3CB4-48A5-96AD-E4A8217F5D90}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EB492D-9017-47E9-A2F5-6B303F4E34DC}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+      <selection activeCell="C4" sqref="C4:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,7 +2462,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2659,19 +2479,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,16 +2528,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,16 +2551,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,16 +2574,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,16 +2597,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,22 +2614,22 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2817,22 +2637,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2840,22 +2660,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2863,22 +2683,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2889,88 +2709,19 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2979,11 +2730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6870AD5D-AEF1-4457-9E7A-00B4863954B0}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68703E0-8626-4156-9DBA-ACB1A1B5A276}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+      <selection activeCell="C4" sqref="C4:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,7 +2748,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3013,16 +2764,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3054,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -3071,7 +2822,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -3088,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -3105,7 +2856,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -3116,13 +2867,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3133,13 +2884,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -3150,13 +2901,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -3167,13 +2918,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -3187,63 +2938,12 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15">
         <v>3</v>
       </c>
     </row>
@@ -3253,11 +2953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FDB89A-9348-4228-AEF6-AF9930E7A2C6}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D12E12-F916-4216-A814-4ABD4843374B}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+      <selection activeCell="C4" sqref="C4:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,7 +2971,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3287,16 +2987,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3330,13 +3030,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,13 +3050,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,13 +3070,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3390,13 +3090,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,19 +3104,19 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,19 +3124,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,19 +3144,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3464,19 +3164,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3487,76 +3187,16 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3565,11 +3205,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B843E9-DFE4-4AE3-B02B-084AA51A807F}">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28453A40-BA6E-4807-8DD5-5C0CE181B824}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+      <selection activeCell="C4" sqref="C4:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3605,25 +3245,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3664,16 +3304,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E4">
         <v>6000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -3690,16 +3330,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E5">
         <v>5000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H5">
         <v>500</v>
@@ -3716,16 +3356,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E6">
         <v>6000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H6">
         <v>500</v>
@@ -3742,16 +3382,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E7">
         <v>5000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -3762,22 +3402,22 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <v>5000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -3788,22 +3428,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>5000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -3814,22 +3454,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>5000</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -3840,22 +3480,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>5000</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -3869,99 +3509,21 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E12">
-        <v>7071.07</v>
+        <v>7810.25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13">
-        <v>7071.07</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14">
-        <v>7810.25</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15">
-        <v>7810.25</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15">
         <v>3</v>
       </c>
     </row>
@@ -3971,11 +3533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B150B06-4D33-48F5-BB4A-8FEAF4558352}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3476D7E1-19F9-4ED8-A9B9-D2B2D2FC5146}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+      <selection activeCell="C4" sqref="C4:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3989,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4005,16 +3567,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4048,13 +3610,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4068,13 +3630,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4088,13 +3650,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4108,13 +3670,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4122,19 +3684,19 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4142,19 +3704,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4162,19 +3724,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4182,19 +3744,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,76 +3767,16 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +3785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7146EA3-9722-4D3A-87DD-0D75BDEE2D63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FA4DD0-40ED-4D5D-8B0A-5A92E560A509}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4309,7 +3811,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4329,52 +3831,52 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4413,13 +3915,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -4452,10 +3954,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4464,7 +3966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0C103D-B759-4E28-BDC3-8DD0DC5CCEF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E975047-9446-41C9-A29E-9790834A4045}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +3994,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4526,94 +4028,94 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="AC2" s="11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -4630,40 +4132,40 @@
         <v>13</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>16</v>
@@ -4694,16 +4196,16 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E4">
         <v>11721.3</v>
@@ -4790,7 +4292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3506CFEF-254F-44A5-9A4A-B5EDCBEEFEFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F1C6E1-CA98-417F-87A0-BF89DDAAAAE7}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4808,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4818,19 +4320,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
@@ -4858,22 +4360,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4882,7 +4384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83221338-8DD4-4A4B-A77E-35179DC72205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4350D4-66C1-43C3-9A88-1F5BA4643BF9}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4995,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E391ABD-C050-4DD7-85ED-90F56AB50024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9BC466-69C9-4C44-9A50-DB196A2188B4}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5011,7 +4513,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5030,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -5091,22 +4593,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5120,22 +4622,22 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5149,22 +4651,22 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5178,22 +4680,22 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5202,7 +4704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590C13C5-2A7E-43A0-A875-42F37BE79724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FCC78B-1A8C-4176-9D0A-AFF3D25773E6}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,7 +4721,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5234,13 +4736,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5271,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5285,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5299,7 +4801,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5313,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5327,10 +4829,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5344,10 +4846,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5361,10 +4863,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5378,10 +4880,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5390,7 +4892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5306E668-4674-48CE-88FC-2201D88114D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48ABF4B-CD5F-40E8-8EBF-0A2DE42E907B}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5409,7 +4911,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5432,34 +4934,34 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>22</v>
@@ -5479,22 +4981,22 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>16</v>
@@ -5517,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E4">
         <v>5000</v>
@@ -5544,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5558,7 +5060,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E5">
         <v>5000</v>
@@ -5585,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -5599,7 +5101,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E6">
         <v>5000</v>
@@ -5626,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5640,7 +5142,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E7">
         <v>5000</v>
@@ -5667,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5676,7 +5178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B1EA7F-86D3-4E0C-8E80-CBF2499622F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BD1E40-8BD7-4F76-A31A-39EFEDC92631}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5699,7 +5201,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5713,31 +5215,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>22</v>
@@ -5777,34 +5279,34 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A5C4F1-BA9A-4F35-B467-89BB4A6D10CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C60FF4A-C8D0-4146-B0D4-52A4B33A5EE9}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5832,7 +5334,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -5844,28 +5346,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5876,28 +5378,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C4">
         <v>2.4000000000000001E-5</v>
@@ -5920,10 +5422,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C5">
         <v>7.7000000000000001E-5</v>
@@ -5940,10 +5442,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C6">
         <v>7.7000000000000001E-5</v>
@@ -5960,10 +5462,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C7">
         <v>7.7000000000000001E-5</v>
@@ -5990,7 +5492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1E099B-E980-4271-8A62-F5596DD9857D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD111634-1AF7-4EC7-BF47-CCF0AB3FA698}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6005,13 +5507,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -6027,10 +5529,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6039,11 +5541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9E0A0-B189-4EFF-8ECB-01F3CCEFA662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC28C7CA-2A79-4F7F-87E6-8B80C441323A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,7 +5558,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -6069,7 +5571,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
@@ -6078,7 +5580,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>22</v>
@@ -6109,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6121,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6129,7 +5631,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>6000</v>
@@ -6141,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6149,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>6000</v>
@@ -6161,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6169,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6181,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6190,11 +5692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674515EC-FABD-44DF-9E7E-401FD958ACDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B34DB6-03BA-40F5-A4CF-B475FC9C3A7C}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D11"/>
+      <selection activeCell="D4" sqref="A4:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6209,7 +5711,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6222,19 +5724,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
@@ -6283,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -6292,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6304,7 +5806,7 @@
         <v>5000</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6312,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -6321,7 +5823,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F5">
         <v>6000</v>
@@ -6333,7 +5835,7 @@
         <v>5000</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6341,7 +5843,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
@@ -6350,7 +5852,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F6">
         <v>6000</v>
@@ -6362,7 +5864,7 @@
         <v>5000</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -6370,7 +5872,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>17</v>
@@ -6379,7 +5881,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6391,7 +5893,7 @@
         <v>5000</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6399,7 +5901,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -6408,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6420,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6428,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
@@ -6437,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <v>6000</v>
@@ -6449,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6457,7 +5959,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
@@ -6466,7 +5968,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>6000</v>
@@ -6478,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6486,7 +5988,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
@@ -6495,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6507,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6516,7 +6018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D6A5AB-B42B-42EF-B904-9016BE2983FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA831AC8-0F87-4432-B91D-CCAD69B797A4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6532,17 +6034,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -6561,13 +6063,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6576,7 +6078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2863531-406A-430E-87BD-D1A88C822BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E671C232-1BBC-4E88-AA20-2AE7D34880BC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6596,7 +6098,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -6607,22 +6109,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>22</v>
@@ -6659,19 +6161,19 @@
         <v>5000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -6680,7 +6182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3B6526-088B-4E1B-BB31-CC71C20E6CFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995347AA-CF1B-4032-9FCD-FB149DA08E59}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6853,7 +6355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8C7A18-925F-4EB6-9D23-680231FB1C42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F6C2E6-18A4-4779-B57C-A7D11CE73B54}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6872,7 +6374,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6883,25 +6385,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6929,13 +6431,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -6944,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6953,7 +6455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232BD04B-EAE9-48EC-80A3-7030A9BE29D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFEDCF4-B33A-4025-92A5-843E6043F546}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6978,7 +6480,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6994,40 +6496,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7070,40 +6572,40 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -7112,11 +6614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60F2443-A839-473C-8EC1-2308F09D0501}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125C20E1-A343-4444-9BC0-D54BCF2141FE}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C7"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,7 +6627,7 @@
     <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7176,67 +6678,16 @@
         <v>43</v>
       </c>
       <c r="B4" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="13">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="13">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -7245,11 +6696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE323D-8169-4A3A-B5B6-B72036F5584B}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809BE8B6-D733-448F-B6AD-19555F05ACCE}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E7"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7260,12 +6711,12 @@
     <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7282,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>34</v>
@@ -7322,7 +6773,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -7331,85 +6782,16 @@
         <v>43</v>
       </c>
       <c r="D4" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>7071.07</v>
+        <v>7810.25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="13">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>7071.07</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="13">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>7810.25</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>7810.25</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -7418,7 +6800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E58660-77AF-4DEB-AC51-8EB56E7E1162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561569BA-DB1C-48E8-88C1-1C9B0683A820}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7436,7 +6818,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7479,7 +6861,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B4" s="13">
         <v>2</v>
@@ -7491,12 +6873,12 @@
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
@@ -7508,12 +6890,12 @@
         <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B6" s="13">
         <v>4</v>
@@ -7525,12 +6907,12 @@
         <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B7" s="13">
         <v>3</v>
@@ -7542,7 +6924,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -7551,7 +6933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2541EC49-4831-4E5C-B5F1-7E31C4D084CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDCC2BB-F032-4011-857A-6E938C695689}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7571,7 +6953,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7588,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>34</v>
@@ -7634,7 +7016,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D4" s="13">
         <v>2</v>
@@ -7646,18 +7028,18 @@
         <v>5000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D5" s="13">
         <v>5</v>
@@ -7669,18 +7051,18 @@
         <v>5000</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D6" s="13">
         <v>6</v>
@@ -7692,18 +7074,18 @@
         <v>5000</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D7" s="13">
         <v>4</v>
@@ -7715,7 +7097,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -7724,7 +7106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8903F-5C46-461B-9208-57025B7FD9B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE7EC35-43B0-40DE-9996-6997DC56B8F1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7740,17 +7122,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -7769,13 +7151,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7784,7 +7166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C0B1E2-CF61-4D62-BF2B-E389D0E6B00F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDE068-3256-4E03-852E-1FE5F056C80F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7803,7 +7185,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -7819,34 +7201,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>36</v>
@@ -7895,10 +7277,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7928,7 +7310,7 @@
         <v>6000</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/pruebas_excel/ETABS_modelo/ETABS/revision_3_marco_con_dano/datos_prueba3.xlsx
+++ b/pruebas_excel/ETABS_modelo/ETABS/revision_3_marco_con_dano/datos_prueba3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos_Jaret\Proyecto-doctoral\pruebas_excel\ETABS_modelo\ETABS\revision_3_marco_con_dano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF99E7A5-CEFE-4493-8EDF-1358E6DC7FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE328169-53B4-411E-A102-65732C13EC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="5115" windowWidth="12000" windowHeight="7995" firstSheet="30" activeTab="30" xr2:uid="{DFBB41F5-BB15-4BFD-B3A1-9CBA1652E7F7}"/>
+    <workbookView xWindow="-30" yWindow="4650" windowWidth="12000" windowHeight="7995" firstSheet="35" activeTab="35" xr2:uid="{9ACB5AE2-CBB8-4915-9402-B1142A418A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembled Joint Masses" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,20 @@
     <sheet name="Joint Assigns - Restraints" sheetId="20" r:id="rId20"/>
     <sheet name="Jt Assigns - Summary" sheetId="21" r:id="rId21"/>
     <sheet name="Joint Loads - Force" sheetId="22" r:id="rId22"/>
-    <sheet name="Mass Source Definition" sheetId="23" r:id="rId23"/>
-    <sheet name="Mat Prop - Basic Mech Props" sheetId="24" r:id="rId24"/>
-    <sheet name="Pier Label Definitions" sheetId="25" r:id="rId25"/>
-    <sheet name="Point Bays" sheetId="26" r:id="rId26"/>
-    <sheet name="Point Object Connectivity" sheetId="27" r:id="rId27"/>
-    <sheet name="Spandrel Label Definitions" sheetId="28" r:id="rId28"/>
-    <sheet name="Story Definitions" sheetId="29" r:id="rId29"/>
-    <sheet name="Tower and Base Story Definition" sheetId="30" r:id="rId30"/>
-    <sheet name="Program Control" sheetId="31" r:id="rId31"/>
+    <sheet name="Load Cases - Linear Static" sheetId="23" r:id="rId23"/>
+    <sheet name="Load Cases - Summary" sheetId="24" r:id="rId24"/>
+    <sheet name="Mass Source Definition" sheetId="25" r:id="rId25"/>
+    <sheet name="Mass Summary by Group" sheetId="26" r:id="rId26"/>
+    <sheet name="Mass Summary by Story" sheetId="27" r:id="rId27"/>
+    <sheet name="Mat Prop - Basic Mech Props" sheetId="28" r:id="rId28"/>
+    <sheet name="Modal Cases - Eigen" sheetId="29" r:id="rId29"/>
+    <sheet name="Pier Label Definitions" sheetId="30" r:id="rId30"/>
+    <sheet name="Point Bays" sheetId="31" r:id="rId31"/>
+    <sheet name="Point Object Connectivity" sheetId="32" r:id="rId32"/>
+    <sheet name="Spandrel Label Definitions" sheetId="33" r:id="rId33"/>
+    <sheet name="Story Definitions" sheetId="34" r:id="rId34"/>
+    <sheet name="Tower and Base Story Definition" sheetId="35" r:id="rId35"/>
+    <sheet name="Program Control" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="375">
   <si>
     <t>TABLE:  Assembled Joint Masses</t>
   </si>
@@ -197,13 +202,106 @@
     <t>IEndStory</t>
   </si>
   <si>
-    <t>D4</t>
+    <t>D9</t>
   </si>
   <si>
     <t>Below</t>
   </si>
   <si>
-    <t>cb24113d-54f5-4e59-9b3d-c7c989424acb</t>
+    <t>20a852e9-8df4-44f5-bbe0-b05bdbd45b94</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>f41fc3d4-738f-4d0a-99c7-a4eb80e19ee5</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>c0160170-faf5-4210-91a6-89cb45a9e65f</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>c037a881-1b8d-4d07-ab44-0157f44373bf</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>e4065060-6f50-40b4-a35f-c0e35255345f</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>a98037d9-c94d-4f74-b5ce-7b43f93f75d1</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>f541d1e6-1cfe-458a-b510-fc1783324e19</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>a931710a-5ec7-4691-b4d7-1f10c312e678</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>42c29c8c-77fa-4baa-921f-e1aeb6d6997d</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>4cd2553d-9625-4e2b-9860-0c7c5558935a</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>299cf56b-d253-4841-bcc9-f5851e4f74d0</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>150f245f-a9bb-483b-b201-fabb7037b2d0</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>badc9254-cd5f-4b8e-ba00-2f9cdb2d0c6d</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>b4d47709-3e17-47ef-861e-b22285d6235f</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>3d5aef8f-ab4a-45a5-8ce4-e01c07e4de3e</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>fc494ca4-0e9f-4e4f-a360-0453672ab911</t>
   </si>
   <si>
     <t>TABLE:  Brace Object Connectivity</t>
@@ -212,7 +310,52 @@
     <t>BraceBay</t>
   </si>
   <si>
-    <t>787cb99f-13a1-4917-8c24-4948dae85db4</t>
+    <t>815b45fb-6832-49dc-ab01-bfae769d9df4</t>
+  </si>
+  <si>
+    <t>c16323ee-55d8-4950-868c-1c04f95485e7</t>
+  </si>
+  <si>
+    <t>e6201ae8-00f0-400b-bc0e-aa7cde55a6f2</t>
+  </si>
+  <si>
+    <t>089c1fec-9182-4536-b8ad-59fd413c7232</t>
+  </si>
+  <si>
+    <t>32557588-3c41-4a38-a0e5-87287c17ec42</t>
+  </si>
+  <si>
+    <t>21cc7c23-f2a0-48d3-a2b1-b480cb226cd9</t>
+  </si>
+  <si>
+    <t>3c4c02ac-2a2e-4e44-8a42-8c134b0142cb</t>
+  </si>
+  <si>
+    <t>19f03c5a-dd28-48aa-9397-eb6b7cad8cdb</t>
+  </si>
+  <si>
+    <t>9bf04368-d6d8-4128-b30f-688c95fbd91f</t>
+  </si>
+  <si>
+    <t>a73b19fa-06e4-4dbc-8603-3de10355acb4</t>
+  </si>
+  <si>
+    <t>de50f587-4cb9-41e0-927c-0f60fe145941</t>
+  </si>
+  <si>
+    <t>35e41b88-f0be-4a2b-8201-92f4da5c1f62</t>
+  </si>
+  <si>
+    <t>ab0d5a62-bec4-4455-8785-e791c222d8ba</t>
+  </si>
+  <si>
+    <t>097d2ecd-086c-4cca-89c5-b802f2aca95c</t>
+  </si>
+  <si>
+    <t>e231b88a-032b-422f-8a46-4bfec8985a7b</t>
+  </si>
+  <si>
+    <t>f7809f12-ab26-4bfa-8420-edce57175530</t>
   </si>
   <si>
     <t>TABLE:  Column Bays</t>
@@ -671,6 +814,60 @@
     <t>790a5915-5d81-49e3-ad88-8898b7a8e6bc</t>
   </si>
   <si>
+    <t>TABLE:  Load Case Definitions - Linear Static</t>
+  </si>
+  <si>
+    <t>Exclude Group</t>
+  </si>
+  <si>
+    <t>Mass Source</t>
+  </si>
+  <si>
+    <t>Stiffness Type</t>
+  </si>
+  <si>
+    <t>Load Type</t>
+  </si>
+  <si>
+    <t>Load Name</t>
+  </si>
+  <si>
+    <t>Load SF</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MsSrc1</t>
+  </si>
+  <si>
+    <t>P-Delta</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Program Determined</t>
+  </si>
+  <si>
+    <t>f305186c-d269-43c2-a0b5-7c6a8a5269ef</t>
+  </si>
+  <si>
+    <t>TABLE:  Load Case Definitions - Summary</t>
+  </si>
+  <si>
+    <t>Linear Static</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Modal - Eigen</t>
+  </si>
+  <si>
+    <t>54a77399-c1cf-471e-a657-8da2897e3c65</t>
+  </si>
+  <si>
     <t>TABLE:  Mass Source Definition</t>
   </si>
   <si>
@@ -698,12 +895,33 @@
     <t>Move Mass Centroid?</t>
   </si>
   <si>
-    <t>MsSrc1</t>
-  </si>
-  <si>
     <t>f6dfa372-fe3d-4446-be01-2577f0b5bf8a</t>
   </si>
   <si>
+    <t>TABLE:  Mass Summary by Group</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Self Mass</t>
+  </si>
+  <si>
+    <t>Self Weight</t>
+  </si>
+  <si>
+    <t>Mass X</t>
+  </si>
+  <si>
+    <t>Mass Y</t>
+  </si>
+  <si>
+    <t>Mass Z</t>
+  </si>
+  <si>
+    <t>TABLE:  Mass Summary by Story</t>
+  </si>
+  <si>
     <t>TABLE:  Material Properties - Basic Mechanical Properties</t>
   </si>
   <si>
@@ -752,6 +970,30 @@
     <t>A615Gr60</t>
   </si>
   <si>
+    <t>TABLE:  Modal Case Definitions - Eigen</t>
+  </si>
+  <si>
+    <t>Max Modes</t>
+  </si>
+  <si>
+    <t>Min Modes</t>
+  </si>
+  <si>
+    <t>Freq Shift</t>
+  </si>
+  <si>
+    <t>Cutoff Freq</t>
+  </si>
+  <si>
+    <t>Convergence Tol</t>
+  </si>
+  <si>
+    <t>Auto Shift?</t>
+  </si>
+  <si>
+    <t>cyc/sec</t>
+  </si>
+  <si>
     <t>TABLE:  Pier Label Definitions</t>
   </si>
   <si>
@@ -782,6 +1024,18 @@
     <t>6d459fae-6234-41e6-9f49-863400ad05ff</t>
   </si>
   <si>
+    <t>d033dae8-0834-4b3a-be38-dd6eba5c7faf</t>
+  </si>
+  <si>
+    <t>79fe59c9-42b3-4c22-8837-4ac0cbb23c28</t>
+  </si>
+  <si>
+    <t>7da18b11-e93a-44f5-97ca-c504f4ac0a44</t>
+  </si>
+  <si>
+    <t>38eac1d0-e98e-4e33-a0d9-74d1fdf15e34</t>
+  </si>
+  <si>
     <t>TABLE:  Point Object Connectivity</t>
   </si>
   <si>
@@ -803,6 +1057,18 @@
     <t>4f775405-d033-463f-a3eb-49436a7f0065</t>
   </si>
   <si>
+    <t>41b24acb-7655-4ee8-a91c-3262e999cb5d</t>
+  </si>
+  <si>
+    <t>8d4796e4-62d7-48fe-a394-540529cbcb5d</t>
+  </si>
+  <si>
+    <t>b72fbc91-e65b-4856-b187-54cf67e6ac85</t>
+  </si>
+  <si>
+    <t>44a05c71-51b6-4b19-824e-fa0f946529e8</t>
+  </si>
+  <si>
     <t>349d63b1-2200-434f-8753-975fe10fa700</t>
   </si>
   <si>
@@ -840,9 +1106,6 @@
   </si>
   <si>
     <t>Splice Story</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>b378f997-dc1a-4ecd-9463-a4cb8b7a5250</t>
@@ -1386,12 +1649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE6C8B8-C9CA-49D2-AB5B-5D98168C69CE}">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94A9633-4143-453C-A2F8-6ADA0917FDE7}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:C11"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,16 +1764,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>0.70840000000000003</v>
+        <v>1.0507</v>
       </c>
       <c r="E4">
-        <v>0.70840000000000003</v>
+        <v>1.0507</v>
       </c>
       <c r="F4">
-        <v>0.70840000000000003</v>
+        <v>1.0507</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1539,16 +1802,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>1.0677000000000001</v>
+        <v>1.0507</v>
       </c>
       <c r="E5">
-        <v>1.0677000000000001</v>
+        <v>1.0507</v>
       </c>
       <c r="F5">
-        <v>1.0677000000000001</v>
+        <v>1.0507</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1577,16 +1840,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>0.70840000000000003</v>
+        <v>1.0507</v>
       </c>
       <c r="E6">
-        <v>0.70840000000000003</v>
+        <v>1.0507</v>
       </c>
       <c r="F6">
-        <v>0.70840000000000003</v>
+        <v>1.0507</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1615,16 +1878,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>0.70840000000000003</v>
+        <v>1.0507</v>
       </c>
       <c r="E7">
-        <v>0.70840000000000003</v>
+        <v>1.0507</v>
       </c>
       <c r="F7">
-        <v>0.70840000000000003</v>
+        <v>1.0507</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1647,22 +1910,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0.58930000000000005</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="E8">
-        <v>0.58930000000000005</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="F8">
-        <v>0.58930000000000005</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1674,33 +1937,33 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="K8">
         <v>5000</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>0.23</v>
+        <v>0.65049999999999997</v>
       </c>
       <c r="E9">
-        <v>0.23</v>
+        <v>0.65049999999999997</v>
       </c>
       <c r="F9">
-        <v>0.23</v>
+        <v>0.65049999999999997</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1712,33 +1975,33 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>0.23</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="E10">
-        <v>0.23</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="F10">
-        <v>0.23</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1750,50 +2013,202 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K10">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0.65049999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.65049999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.65049999999999997</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>6000</v>
+      </c>
+      <c r="K11">
+        <v>2500</v>
+      </c>
+      <c r="L11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>6000</v>
+      </c>
+      <c r="K12">
+        <v>5000</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13">
         <v>4</v>
       </c>
-      <c r="C11" s="13">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>0.23</v>
-      </c>
-      <c r="E11">
-        <v>0.23</v>
-      </c>
-      <c r="F11">
-        <v>0.23</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="D13">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="E13">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>6000</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="F14">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>5000</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="F15">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>0</v>
       </c>
     </row>
@@ -1803,11 +2218,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F487C5B-ACDA-400B-BD13-B4C0C88E357C}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000191F-0054-4DC3-AF85-D1E93D761134}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,7 +2237,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1840,22 +2255,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1890,10 +2305,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -1905,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1916,10 +2331,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -1931,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1942,10 +2357,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="13">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -1957,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1968,10 +2383,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -1983,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1991,13 +2406,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2009,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2017,13 +2432,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2035,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,13 +2458,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2061,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,13 +2484,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C11" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2087,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2098,22 +2513,412 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>91</v>
+      <c r="D21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="13">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="13">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2122,11 +2927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2CCBB1-2120-473B-B378-1400CF929E80}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F96431-9760-4D28-9678-4306F3A4468E}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2947,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2160,22 +2965,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2212,22 +3017,22 @@
         <v>23</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2238,22 +3043,22 @@
         <v>25</v>
       </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2264,22 +3069,22 @@
         <v>27</v>
       </c>
       <c r="C6" s="13">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2290,22 +3095,22 @@
         <v>29</v>
       </c>
       <c r="C7" s="13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2313,25 +3118,25 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2339,25 +3144,25 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2365,25 +3170,25 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2391,25 +3196,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C11" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2420,22 +3225,412 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>99</v>
+      <c r="D21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="13">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="13">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2444,11 +3639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EB492D-9017-47E9-A2F5-6B303F4E34DC}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8755B9B3-7A2D-4845-9E98-4F170DE58D65}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,7 +3657,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2479,19 +3674,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2525,19 +3720,19 @@
         <v>23</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2548,19 +3743,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2571,19 +3766,19 @@
         <v>27</v>
       </c>
       <c r="C6" s="13">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2594,19 +3789,19 @@
         <v>29</v>
       </c>
       <c r="C7" s="13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2614,22 +3809,22 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2637,22 +3832,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2660,22 +3855,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2683,22 +3878,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C11" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,19 +3904,364 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>98</v>
+      <c r="D21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="13">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="13">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2730,11 +4270,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68703E0-8626-4156-9DBA-ACB1A1B5A276}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0489E43D-9127-4866-BF44-057DDCBA4B64}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2764,16 +4304,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2802,10 +4342,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -2819,10 +4359,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -2836,10 +4376,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="13">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -2853,10 +4393,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -2867,13 +4407,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2884,13 +4424,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -2901,13 +4441,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2918,13 +4458,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C11" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2938,12 +4478,267 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12">
+      <c r="D21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="13">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="13">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27">
         <v>3</v>
       </c>
     </row>
@@ -2953,11 +4748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D12E12-F916-4216-A814-4ABD4843374B}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76756358-6168-4BC6-A72A-F891AF267120}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,7 +4766,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2987,16 +4782,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3027,16 +4822,16 @@
         <v>23</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3047,16 +4842,16 @@
         <v>25</v>
       </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,16 +4862,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="13">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,16 +4882,16 @@
         <v>29</v>
       </c>
       <c r="C7" s="13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,19 +4899,19 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,19 +4919,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,19 +4939,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,19 +4959,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C11" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3187,16 +4982,316 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>117</v>
+      <c r="D21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="13">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="13">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3205,11 +5300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28453A40-BA6E-4807-8DD5-5C0CE181B824}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8690DA30-37DE-4546-9519-B64EED2DFC39}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,7 +5321,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3245,25 +5340,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3301,19 +5396,19 @@
         <v>23</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="E4">
         <v>6000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -3327,19 +5422,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>5000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="H5">
         <v>500</v>
@@ -3353,19 +5448,19 @@
         <v>27</v>
       </c>
       <c r="C6" s="13">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="E6">
         <v>6000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="H6">
         <v>500</v>
@@ -3379,19 +5474,19 @@
         <v>29</v>
       </c>
       <c r="C7" s="13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="E7">
         <v>5000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -3402,22 +5497,22 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="E8">
         <v>5000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -3428,22 +5523,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="E9">
         <v>5000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -3454,22 +5549,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="E10">
         <v>5000</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -3480,22 +5575,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C11" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="E11">
         <v>5000</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -3509,21 +5604,411 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12">
+        <v>3905.12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13">
+        <v>3905.12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14">
+        <v>3535.53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15">
+        <v>3535.53</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16">
+        <v>3905.12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17">
+        <v>3905.12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18">
+        <v>3535.53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19">
+        <v>3535.53</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>3905.12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12">
-        <v>7810.25</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12">
+      <c r="D21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21">
+        <v>3905.12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22">
+        <v>3535.53</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23">
+        <v>3535.53</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24">
+        <v>3905.12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="13">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25">
+        <v>3905.12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26">
+        <v>3535.53</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="13">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27">
+        <v>3535.53</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27">
         <v>3</v>
       </c>
     </row>
@@ -3533,11 +6018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3476D7E1-19F9-4ED8-A9B9-D2B2D2FC5146}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9843AE59-ABD4-441A-A4CC-9BE8FA1657EA}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3551,7 +6036,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3567,16 +6052,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3607,16 +6092,16 @@
         <v>23</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3627,16 +6112,16 @@
         <v>25</v>
       </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,16 +6132,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="13">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3667,16 +6152,16 @@
         <v>29</v>
       </c>
       <c r="C7" s="13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,19 +6169,19 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3704,19 +6189,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,19 +6209,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,19 +6229,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C11" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3767,16 +6252,316 @@
         <v>43</v>
       </c>
       <c r="C12" s="13">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>131</v>
+      <c r="D21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="13">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="13">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +6570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FA4DD0-40ED-4D5D-8B0A-5A92E560A509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D2597B-6D7D-4657-922F-4C77869DA95E}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3811,7 +6596,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3831,52 +6616,52 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3915,13 +6700,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -3954,10 +6739,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3966,7 +6751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E975047-9446-41C9-A29E-9790834A4045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41468E59-359A-420C-B1CA-F58EBE73328D}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3994,7 +6779,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4028,94 +6813,94 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -4132,40 +6917,40 @@
         <v>13</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>16</v>
@@ -4196,16 +6981,16 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E4">
         <v>11721.3</v>
@@ -4292,7 +7077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F1C6E1-CA98-417F-87A0-BF89DDAAAAE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B725A5A-2597-404B-8AE2-5E8876FEFC69}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4310,7 +7095,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4320,19 +7105,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
@@ -4360,22 +7145,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4384,7 +7169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4350D4-66C1-43C3-9A88-1F5BA4643BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCE4B16-51F2-4DC1-BF46-AEEBC3A0CCF8}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,7 +7282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9BC466-69C9-4C44-9A50-DB196A2188B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAC8776-3221-405E-AD4C-5AFCF6F808AD}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4513,7 +7298,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4532,7 +7317,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -4590,25 +7375,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4619,25 +7404,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4651,22 +7436,22 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4677,25 +7462,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4704,11 +7489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FCC78B-1A8C-4176-9D0A-AFF3D25773E6}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B052F0-2E3E-405A-B458-9406C5AD114F}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C11"/>
+      <selection activeCell="B4" sqref="B4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,7 +7506,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4736,13 +7521,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4770,10 +7555,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4784,10 +7569,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4798,10 +7583,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4812,78 +7597,134 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="13">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13">
         <v>4</v>
       </c>
-      <c r="C11" s="13">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>183</v>
+      <c r="D14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4892,7 +7733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48ABF4B-CD5F-40E8-8EBF-0A2DE42E907B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC258F3-695A-406F-B065-D4BDC205FDA8}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4911,7 +7752,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4934,34 +7775,34 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>22</v>
@@ -4981,22 +7822,22 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>16</v>
@@ -5016,10 +7857,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="E4">
         <v>5000</v>
@@ -5046,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5057,10 +7898,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="E5">
         <v>5000</v>
@@ -5087,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -5098,10 +7939,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="E6">
         <v>5000</v>
@@ -5128,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5139,10 +7980,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="E7">
         <v>5000</v>
@@ -5169,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +8019,210 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BD1E40-8BD7-4F76-A31A-39EFEDC92631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2852884-BDAE-4C6E-8FE1-B03FD6D22210}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302ACD59-D473-4467-AF86-D0E84ABCB0FE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AFC525-1B20-487C-A3E7-3DA980AB049B}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5201,7 +8245,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5215,31 +8259,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>22</v>
@@ -5279,34 +8323,34 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5314,8 +8358,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C60FF4A-C8D0-4146-B0D4-52A4B33A5EE9}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B3899D-D3BB-4447-B257-E73D0FECAA8B}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4">
+        <v>9.23</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>9.23</v>
+      </c>
+      <c r="E4">
+        <v>9.23</v>
+      </c>
+      <c r="F4">
+        <v>9.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1ABA36-50CF-4D02-95B8-25A3FC80EE6A}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>6.9409000000000001</v>
+      </c>
+      <c r="C4">
+        <v>6.9409000000000001</v>
+      </c>
+      <c r="D4">
+        <v>6.9409000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>2.2890999999999999</v>
+      </c>
+      <c r="C5">
+        <v>2.2890999999999999</v>
+      </c>
+      <c r="D5">
+        <v>2.2890999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D10107-3494-4501-8B92-DF55067D5E67}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5334,7 +8551,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -5346,28 +8563,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5378,28 +8595,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="C4">
         <v>2.4000000000000001E-5</v>
@@ -5422,10 +8639,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="C5">
         <v>7.7000000000000001E-5</v>
@@ -5442,10 +8659,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="C6">
         <v>7.7000000000000001E-5</v>
@@ -5462,10 +8679,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="C7">
         <v>7.7000000000000001E-5</v>
@@ -5484,592 +8701,6 @@
       </c>
       <c r="H7">
         <v>1.17E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD111634-1AF7-4EC7-BF47-CCF0AB3FA698}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC28C7CA-2A79-4F7F-87E6-8B80C441323A}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>5000</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5">
-        <v>6000</v>
-      </c>
-      <c r="D5">
-        <v>5000</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6">
-        <v>6000</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B34DB6-03BA-40F5-A4CF-B475FC9C3A7C}">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>5000</v>
-      </c>
-      <c r="H4">
-        <v>5000</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5">
-        <v>6000</v>
-      </c>
-      <c r="G5">
-        <v>5000</v>
-      </c>
-      <c r="H5">
-        <v>5000</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6">
-        <v>6000</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5000</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5000</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>5000</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9">
-        <v>6000</v>
-      </c>
-      <c r="G9">
-        <v>5000</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="13">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10">
-        <v>6000</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA831AC8-0F87-4432-B91D-CCAD69B797A4}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6078,102 +8709,159 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E671C232-1BBC-4E88-AA20-2AE7D34880BC}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F5E983-9B43-4E5B-8D23-FE6F2B125741}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>5000</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>259</v>
+      <c r="L4" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6182,7 +8870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995347AA-CF1B-4032-9FCD-FB149DA08E59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257332DF-7CA8-4EB3-9FA2-0F749C6E84FB}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6259,7 +8947,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -6268,10 +8956,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>6000</v>
@@ -6282,7 +8970,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -6291,10 +8979,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>5000</v>
@@ -6305,7 +8993,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
@@ -6314,10 +9002,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>6000</v>
@@ -6328,7 +9016,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -6337,10 +9025,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>5000</v>
@@ -6355,7 +9043,893 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F6C2E6-18A4-4779-B57C-A7D11CE73B54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB81658-5E90-469C-9B73-F981FF3F714C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7C90FF-BFA4-4687-A586-63BD411BCCB1}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5">
+        <v>6000</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <v>6000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8">
+        <v>3000</v>
+      </c>
+      <c r="D8">
+        <v>5000</v>
+      </c>
+      <c r="E8">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2500</v>
+      </c>
+      <c r="E9">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10">
+        <v>3000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11">
+        <v>6000</v>
+      </c>
+      <c r="D11">
+        <v>2500</v>
+      </c>
+      <c r="E11">
+        <v>2500</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9A6929-C5E0-4D21-8E4A-2BF4310F0757}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5000</v>
+      </c>
+      <c r="H4">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5">
+        <v>6000</v>
+      </c>
+      <c r="G5">
+        <v>5000</v>
+      </c>
+      <c r="H5">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6">
+        <v>6000</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8">
+        <v>3000</v>
+      </c>
+      <c r="G8">
+        <v>5000</v>
+      </c>
+      <c r="H8">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="13">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2500</v>
+      </c>
+      <c r="H9">
+        <v>2500</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10">
+        <v>3000</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2500</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11">
+        <v>6000</v>
+      </c>
+      <c r="G11">
+        <v>2500</v>
+      </c>
+      <c r="H11">
+        <v>2500</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>5000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13">
+        <v>6000</v>
+      </c>
+      <c r="G13">
+        <v>5000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14">
+        <v>6000</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B97B93-D1F1-4162-B5BA-17D9CC3E36DA}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FD84D5-65C2-44D2-8EAA-A8E3A02E889C}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9952589A-0FFC-4317-8452-3C503BBE3A3B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6374,7 +9948,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6385,25 +9959,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6431,13 +10005,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -6446,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6454,8 +10028,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFEDCF4-B33A-4025-92A5-843E6043F546}">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31D60A0-808A-45CD-B665-36C40524BF25}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6480,7 +10054,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6496,40 +10070,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6572,40 +10146,40 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6614,11 +10188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125C20E1-A343-4444-9BC0-D54BCF2141FE}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F281876-11AF-4AF2-B7AE-8642824C2CDC}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B4" sqref="B4:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6627,7 +10201,7 @@
     <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6681,13 +10255,268 @@
         <v>2</v>
       </c>
       <c r="C4" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="13">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="13">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="13">
+        <v>8</v>
+      </c>
+      <c r="C19" s="13">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6696,11 +10525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809BE8B6-D733-448F-B6AD-19555F05ACCE}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12238D9-7F6D-425B-BCE1-4BC13FD3501D}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A4" sqref="A4:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6711,12 +10540,12 @@
     <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="37" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6733,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>34</v>
@@ -6773,7 +10602,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -6782,16 +10611,361 @@
         <v>43</v>
       </c>
       <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>3905.12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>3905.12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="13">
         <v>2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E6" s="13">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>3535.53</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="13">
+        <v>6</v>
+      </c>
+      <c r="E7" s="13">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>3535.53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>3905.12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>3905.12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>3535.53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="13">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>3535.53</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>3905.12</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>3905.12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>3535.53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="13">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>3535.53</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>3905.12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="13">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>3905.12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="13">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>7810.25</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>48</v>
+      <c r="E18" s="13">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>3535.53</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="13">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>3535.53</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6800,7 +10974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561569BA-DB1C-48E8-88C1-1C9B0683A820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77296B3E-800B-4655-B600-D387223E6FAD}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6818,7 +10992,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6861,7 +11035,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B4" s="13">
         <v>2</v>
@@ -6873,12 +11047,12 @@
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
@@ -6890,12 +11064,12 @@
         <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B6" s="13">
         <v>4</v>
@@ -6907,12 +11081,12 @@
         <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B7" s="13">
         <v>3</v>
@@ -6924,7 +11098,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -6933,7 +11107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDCC2BB-F032-4011-857A-6E938C695689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD642876-E979-473F-B821-1934C76D0329}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6953,7 +11127,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6970,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>34</v>
@@ -7010,94 +11184,94 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D4" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>5000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D5" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>5000</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D6" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>5000</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D7" s="13">
         <v>4</v>
       </c>
       <c r="E7" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>5000</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7106,7 +11280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE7EC35-43B0-40DE-9996-6997DC56B8F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4B1A8C-331E-4B41-B9F5-A798CE50125B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7122,17 +11296,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>22</v>
@@ -7151,13 +11325,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -7166,7 +11340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDE068-3256-4E03-852E-1FE5F056C80F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2547F6DD-2441-4DB1-96EB-519EC5D5D937}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7185,7 +11359,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -7201,34 +11375,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>36</v>
@@ -7277,10 +11451,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7310,7 +11484,7 @@
         <v>6000</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
